--- a/biology/Botanique/Académie_internationale_des_sciences_du_bois/Académie_internationale_des_sciences_du_bois.xlsx
+++ b/biology/Botanique/Académie_internationale_des_sciences_du_bois/Académie_internationale_des_sciences_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_internationale_des_sciences_du_bois</t>
+          <t>Académie_internationale_des_sciences_du_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie internationale des sciences du bois (en anglais, International Academy of Wood Science, IAWS)[1] est une académie internationale reconnue et un rassemblement à but non lucratif de scientifiques du bois, reconnaissant tous les domaines de la science du bois avec leurs domaines technologiques associés[2],[3], et assurer une représentation mondiale[4],[5].
-Depuis juin 2023, l'académie est représentée par le Dr Stavros Avramidis[6], professeur gréco-canadien et scientifique du bois qui est le 19e président de l'IAWS[7], ainsi que par le Dr Ingo Burgert, ingénieur du bois suisse, actuellement vice-président élu pour les années 2023 à 2026.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie internationale des sciences du bois (en anglais, International Academy of Wood Science, IAWS) est une académie internationale reconnue et un rassemblement à but non lucratif de scientifiques du bois, reconnaissant tous les domaines de la science du bois avec leurs domaines technologiques associés et assurer une représentation mondiale,.
+Depuis juin 2023, l'académie est représentée par le Dr Stavros Avramidis, professeur gréco-canadien et scientifique du bois qui est le 19e président de l'IAWS, ainsi que par le Dr Ingo Burgert, ingénieur du bois suisse, actuellement vice-président élu pour les années 2023 à 2026.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_internationale_des_sciences_du_bois</t>
+          <t>Académie_internationale_des_sciences_du_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'académie a été créée le 2 juin 1966 à Paris.
-Le développement et la création de l'Académie internationale des sciences du bois ont impliqué de nombreuses personnes, mais la personne clé qui a eu l'idée de créer une académie du bois était le professeur Franz Gustav Kollmann, du département de recherche et de technologie du bois de l'Université de Munich, en Allemagne[8]. En réalité, il a également été le premier président élu de l'académie de 1966 à 1972.
+Le développement et la création de l'Académie internationale des sciences du bois ont impliqué de nombreuses personnes, mais la personne clé qui a eu l'idée de créer une académie du bois était le professeur Franz Gustav Kollmann, du département de recherche et de technologie du bois de l'Université de Munich, en Allemagne. En réalité, il a également été le premier président élu de l'académie de 1966 à 1972.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_internationale_des_sciences_du_bois</t>
+          <t>Académie_internationale_des_sciences_du_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'académie a pour objectif de promouvoir au niveau international le développement concerté de la science du bois et sa réputation en reconnaissant les scientifiques méritants du bois par leur élection en tant que Fellows, honorant ainsi les réalisations distinguées dans la science du bois[9], et en promouvant un niveau élevé de recherche et de publication. Par ailleurs, l'académie organise chaque année des réunions plénières, notamment des réunions d'affaires et des sessions techniques, sous la forme de conférences scientifiques internationales[10].
-Les membres de l'IAWS sont des scientifiques du bois élus comme étant activement engagés dans la recherche sur le bois au sens le plus large du terme, leur élection étant la preuve de normes scientifiques élevées[11],[12]. Les nouveaux Fellows sont nommés et évalués par les Fellows. Le comité exécutif détermine le nombre de candidats à accepter comme Fellows chaque année, sur la base de ces évaluations.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'académie a pour objectif de promouvoir au niveau international le développement concerté de la science du bois et sa réputation en reconnaissant les scientifiques méritants du bois par leur élection en tant que Fellows, honorant ainsi les réalisations distinguées dans la science du bois, et en promouvant un niveau élevé de recherche et de publication. Par ailleurs, l'académie organise chaque année des réunions plénières, notamment des réunions d'affaires et des sessions techniques, sous la forme de conférences scientifiques internationales.
+Les membres de l'IAWS sont des scientifiques du bois élus comme étant activement engagés dans la recherche sur le bois au sens le plus large du terme, leur élection étant la preuve de normes scientifiques élevées,. Les nouveaux Fellows sont nommés et évalués par les Fellows. Le comité exécutif détermine le nombre de candidats à accepter comme Fellows chaque année, sur la base de ces évaluations.
 Les tâches des boursiers de l'Académie internationale des sciences du bois sont mises en évidence comme suit:
 Promouvoir la recherche et la technologie du bois de haut niveau
 Présenter la recherche et la science du bois lors de réunions internationales/nationales et d'autres organisations.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_internationale_des_sciences_du_bois</t>
+          <t>Académie_internationale_des_sciences_du_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Comité exécutif</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le comité exécutif de l'IAWS est composé des dirigeants de l'académie (président, vice-président, secrétaire, trésorier et président sortant), du rédacteur du bulletin et du président du conseil d'administration[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le comité exécutif de l'IAWS est composé des dirigeants de l'académie (président, vice-président, secrétaire, trésorier et président sortant), du rédacteur du bulletin et du président du conseil d'administration.
 Président : Dr Stavros Avramidis (en), Département des sciences du bois, Université de la Colombie-Britannique, Canada
 Vice-président : Dr Ingo Burgert, Institut des matériaux de construction, ETH Zurich, Suisse
 Secrétaire/éditeur du bulletin : Dr Rupert Wimmer (en), Technologie des matériaux naturels, Université des ressources naturelles et des sciences de la vie, Vienne, Autriche
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_internationale_des_sciences_du_bois</t>
+          <t>Académie_internationale_des_sciences_du_bois</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,9 +634,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Wood Science and Technology[14]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wood Science and Technology
 IAWS Bulletins</t>
         </is>
       </c>
